--- a/fda_nce.xlsx
+++ b/fda_nce.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rahimhashim/My Drive/Time Bioventures/Projects/White Papers/Drug Development/FDA-NCE-Scraper/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6056FED1-5D51-0D43-823F-011C4D0F344F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{350FFE75-D9D5-7547-9447-57963376D750}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1580" windowWidth="36000" windowHeight="21100" xr2:uid="{741117CD-6B31-8443-8BA3-502980940CE4}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="fda_nce" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">fda_nce!$B$1:$W$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">fda_nce!$B$1:$J$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2773" uniqueCount="2748">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2760" uniqueCount="2735">
   <si>
     <t>year</t>
   </si>
@@ -7491,45 +7491,6 @@
   </si>
   <si>
     <t>https://www.accessdata.fda.gov/drugsatfda_docs/label/2024/761344s000lbl.pdf</t>
-  </si>
-  <si>
-    <t>Company</t>
-  </si>
-  <si>
-    <t>Size of Company at Release</t>
-  </si>
-  <si>
-    <t>Public/Private</t>
-  </si>
-  <si>
-    <t>modality (small molecule, antibody, bi-specific, cell therapy, etc)</t>
-  </si>
-  <si>
-    <t>pharma or biotech ("pharma" is typically the top 10 or top 20)</t>
-  </si>
-  <si>
-    <t>if biotech, public or private</t>
-  </si>
-  <si>
-    <t>if acquired, what company originated it</t>
-  </si>
-  <si>
-    <t>time since patent filed (how long did it take from IP filing to approval?)</t>
-  </si>
-  <si>
-    <t>if biotech or if originated at a biotech, how much money did that biotech raise?</t>
-  </si>
-  <si>
-    <t>how many rounds of financing did biotech raise?</t>
-  </si>
-  <si>
-    <t>who were the investors in each round of financing?</t>
-  </si>
-  <si>
-    <t>was drug first in class?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">if pharma, was the asset of internal origin or acquired </t>
   </si>
   <si>
     <t>https://wayback.archive-it.org//7993/20161022052138/http://www.accessdata.fda.gov/scripts/cder/drugsatfda/index.cfm?fuseaction=Search.SearchAction&amp;searchTerm=125327&amp;SearchType=BasicSearch</t>
@@ -9180,10 +9141,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10BFA901-49ED-4245-9D27-77265F90C3C6}">
-  <dimension ref="A1:W544"/>
+  <dimension ref="A1:J544"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A495" workbookViewId="0">
-      <selection activeCell="I544" sqref="I544"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9191,21 +9152,11 @@
     <col min="4" max="4" width="10.83203125" style="5"/>
     <col min="6" max="6" width="10.83203125" style="1"/>
     <col min="12" max="12" width="24" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="54.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="50.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="22.83203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="44.5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="32.83203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="57.33203125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="64.83203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="39.83203125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="41.83203125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>2743</v>
+        <v>2730</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -9234,47 +9185,8 @@
       <c r="J1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="4" t="s">
-        <v>2484</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>2485</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>2486</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>2487</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>2488</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>2489</v>
-      </c>
-      <c r="Q1" s="5" t="s">
-        <v>2496</v>
-      </c>
-      <c r="R1" s="5" t="s">
-        <v>2490</v>
-      </c>
-      <c r="S1" s="5" t="s">
-        <v>2491</v>
-      </c>
-      <c r="T1" s="5" t="s">
-        <v>2492</v>
-      </c>
-      <c r="U1" s="5" t="s">
-        <v>2493</v>
-      </c>
-      <c r="V1" s="5" t="s">
-        <v>2494</v>
-      </c>
-      <c r="W1" s="5" t="s">
-        <v>2495</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -9297,13 +9209,13 @@
         <v>11</v>
       </c>
       <c r="H2" t="s">
-        <v>2497</v>
+        <v>2484</v>
       </c>
       <c r="I2" t="s">
-        <v>2498</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+        <v>2485</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3">
         <f>A2+1</f>
         <v>1</v>
@@ -9327,10 +9239,10 @@
         <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>2499</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+        <v>2486</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4">
         <f t="shared" ref="A4:A67" si="0">A3+1</f>
         <v>2</v>
@@ -9354,13 +9266,13 @@
         <v>17</v>
       </c>
       <c r="H4" t="s">
-        <v>2500</v>
+        <v>2487</v>
       </c>
       <c r="I4" t="s">
-        <v>2501</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+        <v>2488</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -9384,13 +9296,13 @@
         <v>20</v>
       </c>
       <c r="H5" t="s">
-        <v>2502</v>
+        <v>2489</v>
       </c>
       <c r="I5" t="s">
-        <v>2503</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+        <v>2490</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -9414,10 +9326,10 @@
         <v>23</v>
       </c>
       <c r="I6" t="s">
-        <v>2504</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+        <v>2491</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -9441,13 +9353,13 @@
         <v>26</v>
       </c>
       <c r="H7" t="s">
-        <v>2505</v>
+        <v>2492</v>
       </c>
       <c r="I7" t="s">
-        <v>2506</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+        <v>2493</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -9471,13 +9383,13 @@
         <v>29</v>
       </c>
       <c r="H8" t="s">
-        <v>2507</v>
+        <v>2494</v>
       </c>
       <c r="I8" t="s">
-        <v>2508</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+        <v>2495</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -9501,13 +9413,13 @@
         <v>32</v>
       </c>
       <c r="H9" t="s">
-        <v>2509</v>
+        <v>2496</v>
       </c>
       <c r="I9" t="s">
-        <v>2510</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+        <v>2497</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -9531,10 +9443,10 @@
         <v>35</v>
       </c>
       <c r="H10" t="s">
-        <v>2511</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+        <v>2498</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -9558,13 +9470,13 @@
         <v>38</v>
       </c>
       <c r="H11" t="s">
-        <v>2512</v>
+        <v>2499</v>
       </c>
       <c r="I11" t="s">
-        <v>2513</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -9588,13 +9500,13 @@
         <v>41</v>
       </c>
       <c r="H12" t="s">
-        <v>2514</v>
+        <v>2501</v>
       </c>
       <c r="I12" t="s">
-        <v>2515</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+        <v>2502</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -9618,13 +9530,13 @@
         <v>44</v>
       </c>
       <c r="H13" t="s">
-        <v>2516</v>
+        <v>2503</v>
       </c>
       <c r="I13" t="s">
-        <v>2517</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+        <v>2504</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -9648,13 +9560,13 @@
         <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>2518</v>
+        <v>2505</v>
       </c>
       <c r="I14" t="s">
-        <v>2519</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+        <v>2506</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -9678,13 +9590,13 @@
         <v>50</v>
       </c>
       <c r="H15" t="s">
-        <v>2520</v>
+        <v>2507</v>
       </c>
       <c r="I15" t="s">
-        <v>2521</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+        <v>2508</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -9705,13 +9617,13 @@
         <v>41106</v>
       </c>
       <c r="G16" t="s">
-        <v>2717</v>
+        <v>2704</v>
       </c>
       <c r="H16" t="s">
-        <v>2522</v>
+        <v>2509</v>
       </c>
       <c r="I16" t="s">
-        <v>2523</v>
+        <v>2510</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -9735,13 +9647,13 @@
         <v>41110</v>
       </c>
       <c r="G17" t="s">
-        <v>2716</v>
+        <v>2703</v>
       </c>
       <c r="H17" t="s">
-        <v>2524</v>
+        <v>2511</v>
       </c>
       <c r="I17" t="s">
-        <v>2525</v>
+        <v>2512</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -9768,10 +9680,10 @@
         <v>57</v>
       </c>
       <c r="H18" t="s">
-        <v>2526</v>
+        <v>2513</v>
       </c>
       <c r="I18" t="s">
-        <v>2527</v>
+        <v>2514</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -9798,10 +9710,10 @@
         <v>60</v>
       </c>
       <c r="H19" t="s">
-        <v>2528</v>
+        <v>2515</v>
       </c>
       <c r="I19" t="s">
-        <v>2529</v>
+        <v>2516</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -9828,10 +9740,10 @@
         <v>63</v>
       </c>
       <c r="H20" t="s">
-        <v>2530</v>
+        <v>2517</v>
       </c>
       <c r="I20" t="s">
-        <v>2531</v>
+        <v>2518</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
@@ -9858,10 +9770,10 @@
         <v>66</v>
       </c>
       <c r="H21" t="s">
-        <v>2532</v>
+        <v>2519</v>
       </c>
       <c r="I21" t="s">
-        <v>2533</v>
+        <v>2520</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -9888,7 +9800,7 @@
         <v>69</v>
       </c>
       <c r="I22" t="s">
-        <v>2534</v>
+        <v>2521</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -9915,10 +9827,10 @@
         <v>72</v>
       </c>
       <c r="H23" t="s">
-        <v>2535</v>
+        <v>2522</v>
       </c>
       <c r="I23" t="s">
-        <v>2536</v>
+        <v>2523</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
@@ -9945,10 +9857,10 @@
         <v>75</v>
       </c>
       <c r="H24" t="s">
-        <v>2537</v>
+        <v>2524</v>
       </c>
       <c r="I24" t="s">
-        <v>2538</v>
+        <v>2525</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
@@ -9975,10 +9887,10 @@
         <v>78</v>
       </c>
       <c r="H25" t="s">
-        <v>2539</v>
+        <v>2526</v>
       </c>
       <c r="I25" t="s">
-        <v>2540</v>
+        <v>2527</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
@@ -9993,7 +9905,7 @@
         <v>25</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>2733</v>
+        <v>2720</v>
       </c>
       <c r="E26" t="s">
         <v>79</v>
@@ -10002,13 +9914,13 @@
         <v>41164</v>
       </c>
       <c r="G26" t="s">
-        <v>2718</v>
+        <v>2705</v>
       </c>
       <c r="H26" t="s">
-        <v>2541</v>
+        <v>2528</v>
       </c>
       <c r="I26" t="s">
-        <v>2542</v>
+        <v>2529</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
@@ -10035,10 +9947,10 @@
         <v>82</v>
       </c>
       <c r="H27" t="s">
-        <v>2543</v>
+        <v>2530</v>
       </c>
       <c r="I27" t="s">
-        <v>2544</v>
+        <v>2531</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
@@ -10065,10 +9977,10 @@
         <v>85</v>
       </c>
       <c r="H28" t="s">
-        <v>2545</v>
+        <v>2532</v>
       </c>
       <c r="I28" t="s">
-        <v>2546</v>
+        <v>2533</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
@@ -10095,10 +10007,10 @@
         <v>88</v>
       </c>
       <c r="H29" t="s">
-        <v>2547</v>
+        <v>2534</v>
       </c>
       <c r="I29" t="s">
-        <v>2548</v>
+        <v>2535</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
@@ -10125,10 +10037,10 @@
         <v>91</v>
       </c>
       <c r="H30" t="s">
-        <v>2549</v>
+        <v>2536</v>
       </c>
       <c r="I30" t="s">
-        <v>2550</v>
+        <v>2537</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
@@ -10155,10 +10067,10 @@
         <v>94</v>
       </c>
       <c r="H31" t="s">
-        <v>2551</v>
+        <v>2538</v>
       </c>
       <c r="I31" t="s">
-        <v>2552</v>
+        <v>2539</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
@@ -10185,10 +10097,10 @@
         <v>97</v>
       </c>
       <c r="H32" t="s">
-        <v>2553</v>
+        <v>2540</v>
       </c>
       <c r="I32" t="s">
-        <v>2554</v>
+        <v>2541</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
@@ -10215,10 +10127,10 @@
         <v>100</v>
       </c>
       <c r="H33" t="s">
-        <v>2555</v>
+        <v>2542</v>
       </c>
       <c r="I33" t="s">
-        <v>2556</v>
+        <v>2543</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
@@ -10245,10 +10157,10 @@
         <v>102</v>
       </c>
       <c r="H34" t="s">
-        <v>2557</v>
+        <v>2544</v>
       </c>
       <c r="I34" t="s">
-        <v>2558</v>
+        <v>2545</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
@@ -10275,10 +10187,10 @@
         <v>105</v>
       </c>
       <c r="H35" t="s">
-        <v>2559</v>
+        <v>2546</v>
       </c>
       <c r="I35" t="s">
-        <v>2560</v>
+        <v>2547</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
@@ -10305,10 +10217,10 @@
         <v>108</v>
       </c>
       <c r="H36" t="s">
-        <v>2561</v>
+        <v>2548</v>
       </c>
       <c r="I36" t="s">
-        <v>2562</v>
+        <v>2549</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
@@ -10335,10 +10247,10 @@
         <v>111</v>
       </c>
       <c r="H37" t="s">
-        <v>2563</v>
+        <v>2550</v>
       </c>
       <c r="I37" t="s">
-        <v>2564</v>
+        <v>2551</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
@@ -10365,10 +10277,10 @@
         <v>114</v>
       </c>
       <c r="H38" t="s">
-        <v>2565</v>
+        <v>2552</v>
       </c>
       <c r="I38" t="s">
-        <v>2566</v>
+        <v>2553</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
@@ -10395,10 +10307,10 @@
         <v>117</v>
       </c>
       <c r="H39" t="s">
-        <v>2567</v>
+        <v>2554</v>
       </c>
       <c r="I39" t="s">
-        <v>2568</v>
+        <v>2555</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
@@ -10425,10 +10337,10 @@
         <v>120</v>
       </c>
       <c r="H40" t="s">
-        <v>2569</v>
+        <v>2556</v>
       </c>
       <c r="I40" t="s">
-        <v>2570</v>
+        <v>2557</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
@@ -10455,10 +10367,10 @@
         <v>123</v>
       </c>
       <c r="H41" t="s">
-        <v>2571</v>
+        <v>2558</v>
       </c>
       <c r="I41" t="s">
-        <v>2572</v>
+        <v>2559</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
@@ -10485,10 +10397,10 @@
         <v>126</v>
       </c>
       <c r="H42" t="s">
-        <v>2573</v>
+        <v>2560</v>
       </c>
       <c r="I42" t="s">
-        <v>2574</v>
+        <v>2561</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
@@ -10515,10 +10427,10 @@
         <v>129</v>
       </c>
       <c r="H43" t="s">
-        <v>2575</v>
+        <v>2562</v>
       </c>
       <c r="I43" t="s">
-        <v>2576</v>
+        <v>2563</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
@@ -10545,10 +10457,10 @@
         <v>132</v>
       </c>
       <c r="H44" t="s">
-        <v>2577</v>
+        <v>2564</v>
       </c>
       <c r="I44" t="s">
-        <v>2578</v>
+        <v>2565</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
@@ -10575,10 +10487,10 @@
         <v>135</v>
       </c>
       <c r="H45" t="s">
-        <v>2579</v>
+        <v>2566</v>
       </c>
       <c r="I45" t="s">
-        <v>2580</v>
+        <v>2567</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
@@ -10605,10 +10517,10 @@
         <v>138</v>
       </c>
       <c r="H46" t="s">
-        <v>2581</v>
+        <v>2568</v>
       </c>
       <c r="I46" t="s">
-        <v>2582</v>
+        <v>2569</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
@@ -10635,10 +10547,10 @@
         <v>141</v>
       </c>
       <c r="H47" t="s">
-        <v>2583</v>
+        <v>2570</v>
       </c>
       <c r="I47" t="s">
-        <v>2584</v>
+        <v>2571</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
@@ -10665,10 +10577,10 @@
         <v>144</v>
       </c>
       <c r="H48" t="s">
-        <v>2585</v>
+        <v>2572</v>
       </c>
       <c r="I48" t="s">
-        <v>2586</v>
+        <v>2573</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
@@ -10695,10 +10607,10 @@
         <v>147</v>
       </c>
       <c r="H49" t="s">
-        <v>2587</v>
+        <v>2574</v>
       </c>
       <c r="I49" t="s">
-        <v>2588</v>
+        <v>2575</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
@@ -10725,10 +10637,10 @@
         <v>150</v>
       </c>
       <c r="H50" t="s">
-        <v>2589</v>
+        <v>2576</v>
       </c>
       <c r="I50" t="s">
-        <v>2590</v>
+        <v>2577</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
@@ -10755,10 +10667,10 @@
         <v>153</v>
       </c>
       <c r="H51" t="s">
-        <v>2591</v>
+        <v>2578</v>
       </c>
       <c r="I51" t="s">
-        <v>2592</v>
+        <v>2579</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
@@ -10785,10 +10697,10 @@
         <v>156</v>
       </c>
       <c r="H52" t="s">
-        <v>2593</v>
+        <v>2580</v>
       </c>
       <c r="I52" t="s">
-        <v>2594</v>
+        <v>2581</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
@@ -10815,10 +10727,10 @@
         <v>159</v>
       </c>
       <c r="H53" t="s">
-        <v>2595</v>
+        <v>2582</v>
       </c>
       <c r="I53" t="s">
-        <v>2594</v>
+        <v>2581</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
@@ -10845,10 +10757,10 @@
         <v>162</v>
       </c>
       <c r="H54" t="s">
-        <v>2596</v>
+        <v>2583</v>
       </c>
       <c r="I54" t="s">
-        <v>2597</v>
+        <v>2584</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
@@ -10875,10 +10787,10 @@
         <v>165</v>
       </c>
       <c r="H55" t="s">
-        <v>2598</v>
+        <v>2585</v>
       </c>
       <c r="I55" t="s">
-        <v>2599</v>
+        <v>2586</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
@@ -10905,10 +10817,10 @@
         <v>168</v>
       </c>
       <c r="H56" t="s">
-        <v>2600</v>
+        <v>2587</v>
       </c>
       <c r="I56" t="s">
-        <v>2601</v>
+        <v>2588</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
@@ -10935,7 +10847,7 @@
         <v>171</v>
       </c>
       <c r="H57" t="s">
-        <v>2602</v>
+        <v>2589</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
@@ -10962,10 +10874,10 @@
         <v>174</v>
       </c>
       <c r="H58" t="s">
-        <v>2603</v>
+        <v>2590</v>
       </c>
       <c r="I58" t="s">
-        <v>2604</v>
+        <v>2591</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
@@ -10992,10 +10904,10 @@
         <v>177</v>
       </c>
       <c r="H59" t="s">
-        <v>2605</v>
+        <v>2592</v>
       </c>
       <c r="I59" t="s">
-        <v>2606</v>
+        <v>2593</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
@@ -11019,13 +10931,13 @@
         <v>41572</v>
       </c>
       <c r="G60" t="s">
-        <v>2734</v>
+        <v>2721</v>
       </c>
       <c r="H60" t="s">
-        <v>2607</v>
+        <v>2594</v>
       </c>
       <c r="I60" t="s">
-        <v>2608</v>
+        <v>2595</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
@@ -11052,10 +10964,10 @@
         <v>182</v>
       </c>
       <c r="H61" t="s">
-        <v>2609</v>
+        <v>2596</v>
       </c>
       <c r="I61" t="s">
-        <v>2610</v>
+        <v>2597</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
@@ -11082,10 +10994,10 @@
         <v>185</v>
       </c>
       <c r="H62" t="s">
-        <v>2611</v>
+        <v>2598</v>
       </c>
       <c r="I62" t="s">
-        <v>2612</v>
+        <v>2599</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
@@ -11112,10 +11024,10 @@
         <v>188</v>
       </c>
       <c r="H63" t="s">
-        <v>2613</v>
+        <v>2600</v>
       </c>
       <c r="I63" t="s">
-        <v>2614</v>
+        <v>2601</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
@@ -11142,7 +11054,7 @@
         <v>191</v>
       </c>
       <c r="H64" t="s">
-        <v>2615</v>
+        <v>2602</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
@@ -11169,10 +11081,10 @@
         <v>194</v>
       </c>
       <c r="H65" t="s">
-        <v>2616</v>
+        <v>2603</v>
       </c>
       <c r="I65" t="s">
-        <v>2617</v>
+        <v>2604</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
@@ -11199,10 +11111,10 @@
         <v>197</v>
       </c>
       <c r="H66" t="s">
-        <v>2618</v>
+        <v>2605</v>
       </c>
       <c r="I66" t="s">
-        <v>2619</v>
+        <v>2606</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
@@ -11229,7 +11141,7 @@
         <v>200</v>
       </c>
       <c r="I67" t="s">
-        <v>2620</v>
+        <v>2607</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
@@ -11256,10 +11168,10 @@
         <v>203</v>
       </c>
       <c r="H68" t="s">
-        <v>2621</v>
+        <v>2608</v>
       </c>
       <c r="I68" t="s">
-        <v>2622</v>
+        <v>2609</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
@@ -11286,10 +11198,10 @@
         <v>206</v>
       </c>
       <c r="H69" t="s">
-        <v>2623</v>
+        <v>2610</v>
       </c>
       <c r="I69" t="s">
-        <v>2624</v>
+        <v>2611</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
@@ -11316,10 +11228,10 @@
         <v>209</v>
       </c>
       <c r="H70" t="s">
-        <v>2625</v>
+        <v>2612</v>
       </c>
       <c r="I70" t="s">
-        <v>2626</v>
+        <v>2613</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
@@ -11346,10 +11258,10 @@
         <v>212</v>
       </c>
       <c r="H71" t="s">
-        <v>2627</v>
+        <v>2614</v>
       </c>
       <c r="I71" t="s">
-        <v>2628</v>
+        <v>2615</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
@@ -11376,10 +11288,10 @@
         <v>215</v>
       </c>
       <c r="H72" t="s">
-        <v>2629</v>
+        <v>2616</v>
       </c>
       <c r="I72" t="s">
-        <v>2630</v>
+        <v>2617</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
@@ -11406,7 +11318,7 @@
         <v>218</v>
       </c>
       <c r="H73" t="s">
-        <v>2631</v>
+        <v>2618</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
@@ -11433,10 +11345,10 @@
         <v>221</v>
       </c>
       <c r="H74" t="s">
-        <v>2632</v>
+        <v>2619</v>
       </c>
       <c r="I74" t="s">
-        <v>2633</v>
+        <v>2620</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
@@ -11463,10 +11375,10 @@
         <v>224</v>
       </c>
       <c r="H75" t="s">
-        <v>2634</v>
+        <v>2621</v>
       </c>
       <c r="I75" t="s">
-        <v>2635</v>
+        <v>2622</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
@@ -11493,10 +11405,10 @@
         <v>203</v>
       </c>
       <c r="H76" t="s">
-        <v>2636</v>
+        <v>2623</v>
       </c>
       <c r="I76" t="s">
-        <v>2637</v>
+        <v>2624</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
@@ -11523,10 +11435,10 @@
         <v>229</v>
       </c>
       <c r="H77" t="s">
-        <v>2638</v>
+        <v>2625</v>
       </c>
       <c r="I77" t="s">
-        <v>2639</v>
+        <v>2626</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
@@ -11553,10 +11465,10 @@
         <v>232</v>
       </c>
       <c r="H78" t="s">
-        <v>2640</v>
+        <v>2627</v>
       </c>
       <c r="I78" t="s">
-        <v>2641</v>
+        <v>2628</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
@@ -11583,10 +11495,10 @@
         <v>235</v>
       </c>
       <c r="H79" t="s">
-        <v>2642</v>
+        <v>2629</v>
       </c>
       <c r="I79" t="s">
-        <v>2643</v>
+        <v>2630</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
@@ -11613,10 +11525,10 @@
         <v>238</v>
       </c>
       <c r="H80" t="s">
-        <v>2644</v>
+        <v>2631</v>
       </c>
       <c r="I80" t="s">
-        <v>2645</v>
+        <v>2632</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
@@ -11643,10 +11555,10 @@
         <v>241</v>
       </c>
       <c r="H81" t="s">
-        <v>2646</v>
+        <v>2633</v>
       </c>
       <c r="I81" t="s">
-        <v>2647</v>
+        <v>2634</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
@@ -11673,10 +11585,10 @@
         <v>244</v>
       </c>
       <c r="H82" t="s">
-        <v>2648</v>
+        <v>2635</v>
       </c>
       <c r="I82" t="s">
-        <v>2649</v>
+        <v>2636</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
@@ -11703,7 +11615,7 @@
         <v>247</v>
       </c>
       <c r="H83" t="s">
-        <v>2650</v>
+        <v>2637</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
@@ -11730,10 +11642,10 @@
         <v>250</v>
       </c>
       <c r="H84" t="s">
-        <v>2651</v>
+        <v>2638</v>
       </c>
       <c r="I84" t="s">
-        <v>2652</v>
+        <v>2639</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.2">
@@ -11760,10 +11672,10 @@
         <v>253</v>
       </c>
       <c r="H85" t="s">
-        <v>2653</v>
+        <v>2640</v>
       </c>
       <c r="I85" t="s">
-        <v>2654</v>
+        <v>2641</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
@@ -11790,7 +11702,7 @@
         <v>256</v>
       </c>
       <c r="H86" t="s">
-        <v>2655</v>
+        <v>2642</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
@@ -11817,10 +11729,10 @@
         <v>259</v>
       </c>
       <c r="H87" t="s">
-        <v>2656</v>
+        <v>2643</v>
       </c>
       <c r="I87" t="s">
-        <v>2657</v>
+        <v>2644</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
@@ -11847,10 +11759,10 @@
         <v>262</v>
       </c>
       <c r="H88" t="s">
-        <v>2658</v>
+        <v>2645</v>
       </c>
       <c r="I88" t="s">
-        <v>2659</v>
+        <v>2646</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
@@ -11877,10 +11789,10 @@
         <v>265</v>
       </c>
       <c r="H89" t="s">
-        <v>2660</v>
+        <v>2647</v>
       </c>
       <c r="I89" t="s">
-        <v>2661</v>
+        <v>2648</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
@@ -11907,10 +11819,10 @@
         <v>268</v>
       </c>
       <c r="H90" t="s">
-        <v>2662</v>
+        <v>2649</v>
       </c>
       <c r="I90" t="s">
-        <v>2663</v>
+        <v>2650</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
@@ -11937,10 +11849,10 @@
         <v>271</v>
       </c>
       <c r="H91" t="s">
-        <v>2664</v>
+        <v>2651</v>
       </c>
       <c r="I91" t="s">
-        <v>2665</v>
+        <v>2652</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.2">
@@ -11967,7 +11879,7 @@
         <v>274</v>
       </c>
       <c r="H92" t="s">
-        <v>2666</v>
+        <v>2653</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.2">
@@ -11994,10 +11906,10 @@
         <v>277</v>
       </c>
       <c r="H93" t="s">
-        <v>2667</v>
+        <v>2654</v>
       </c>
       <c r="I93" t="s">
-        <v>2668</v>
+        <v>2655</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.2">
@@ -12024,10 +11936,10 @@
         <v>280</v>
       </c>
       <c r="H94" t="s">
-        <v>2669</v>
+        <v>2656</v>
       </c>
       <c r="I94" t="s">
-        <v>2670</v>
+        <v>2657</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.2">
@@ -12054,10 +11966,10 @@
         <v>283</v>
       </c>
       <c r="H95" t="s">
-        <v>2671</v>
+        <v>2658</v>
       </c>
       <c r="I95" t="s">
-        <v>2672</v>
+        <v>2659</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.2">
@@ -12084,10 +11996,10 @@
         <v>286</v>
       </c>
       <c r="H96" t="s">
-        <v>2673</v>
+        <v>2660</v>
       </c>
       <c r="I96" t="s">
-        <v>2674</v>
+        <v>2661</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.2">
@@ -12114,10 +12026,10 @@
         <v>289</v>
       </c>
       <c r="H97" t="s">
-        <v>2675</v>
+        <v>2662</v>
       </c>
       <c r="I97" t="s">
-        <v>2676</v>
+        <v>2663</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.2">
@@ -12144,10 +12056,10 @@
         <v>292</v>
       </c>
       <c r="H98" t="s">
-        <v>2677</v>
+        <v>2664</v>
       </c>
       <c r="I98" t="s">
-        <v>2678</v>
+        <v>2665</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.2">
@@ -12174,10 +12086,10 @@
         <v>295</v>
       </c>
       <c r="H99" t="s">
-        <v>2679</v>
+        <v>2666</v>
       </c>
       <c r="I99" t="s">
-        <v>2680</v>
+        <v>2667</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.2">
@@ -12204,10 +12116,10 @@
         <v>298</v>
       </c>
       <c r="H100" t="s">
-        <v>2681</v>
+        <v>2668</v>
       </c>
       <c r="I100" t="s">
-        <v>2682</v>
+        <v>2669</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.2">
@@ -12234,10 +12146,10 @@
         <v>298</v>
       </c>
       <c r="H101" t="s">
-        <v>2683</v>
+        <v>2670</v>
       </c>
       <c r="I101" t="s">
-        <v>2684</v>
+        <v>2671</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.2">
@@ -12264,10 +12176,10 @@
         <v>303</v>
       </c>
       <c r="H102" t="s">
-        <v>2685</v>
+        <v>2672</v>
       </c>
       <c r="I102" t="s">
-        <v>2686</v>
+        <v>2673</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.2">
@@ -12294,10 +12206,10 @@
         <v>306</v>
       </c>
       <c r="H103" t="s">
-        <v>2687</v>
+        <v>2674</v>
       </c>
       <c r="I103" t="s">
-        <v>2688</v>
+        <v>2675</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.2">
@@ -12324,10 +12236,10 @@
         <v>309</v>
       </c>
       <c r="H104" t="s">
-        <v>2689</v>
+        <v>2676</v>
       </c>
       <c r="I104" t="s">
-        <v>2690</v>
+        <v>2677</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.2">
@@ -12354,10 +12266,10 @@
         <v>312</v>
       </c>
       <c r="H105" t="s">
-        <v>2691</v>
+        <v>2678</v>
       </c>
       <c r="I105" t="s">
-        <v>2692</v>
+        <v>2679</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.2">
@@ -12384,10 +12296,10 @@
         <v>315</v>
       </c>
       <c r="H106" t="s">
-        <v>2693</v>
+        <v>2680</v>
       </c>
       <c r="I106" t="s">
-        <v>2694</v>
+        <v>2681</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.2">
@@ -12414,10 +12326,10 @@
         <v>318</v>
       </c>
       <c r="H107" t="s">
-        <v>2695</v>
+        <v>2682</v>
       </c>
       <c r="I107" t="s">
-        <v>2696</v>
+        <v>2683</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.2">
@@ -12444,10 +12356,10 @@
         <v>321</v>
       </c>
       <c r="H108" t="s">
-        <v>2697</v>
+        <v>2684</v>
       </c>
       <c r="I108" t="s">
-        <v>2698</v>
+        <v>2685</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.2">
@@ -12672,7 +12584,7 @@
         <v>8</v>
       </c>
       <c r="D116" s="5" t="s">
-        <v>2732</v>
+        <v>2719</v>
       </c>
       <c r="E116" t="s">
         <v>357</v>
@@ -16464,7 +16376,7 @@
         <v>17</v>
       </c>
       <c r="D238" s="5" t="s">
-        <v>2744</v>
+        <v>2731</v>
       </c>
       <c r="E238" t="s">
         <v>1004</v>
@@ -19164,7 +19076,7 @@
         <v>1463</v>
       </c>
       <c r="I325" t="s">
-        <v>2699</v>
+        <v>2686</v>
       </c>
       <c r="J325" t="s">
         <v>1464</v>
@@ -20748,7 +20660,7 @@
         <v>1727</v>
       </c>
       <c r="I377" t="s">
-        <v>2700</v>
+        <v>2687</v>
       </c>
     </row>
     <row r="378" spans="1:10" x14ac:dyDescent="0.2">
@@ -21597,7 +21509,7 @@
         <v>1865</v>
       </c>
       <c r="I405" t="s">
-        <v>2701</v>
+        <v>2688</v>
       </c>
       <c r="J405" t="s">
         <v>1866</v>
@@ -22110,7 +22022,7 @@
         <v>44512</v>
       </c>
       <c r="G422" t="s">
-        <v>2719</v>
+        <v>2706</v>
       </c>
       <c r="H422" t="s">
         <v>1951</v>
@@ -22332,7 +22244,7 @@
         <v>44557</v>
       </c>
       <c r="G429" t="s">
-        <v>2720</v>
+        <v>2707</v>
       </c>
       <c r="H429" t="s">
         <v>1989</v>
@@ -23646,7 +23558,7 @@
         <v>2202</v>
       </c>
       <c r="J473" t="s">
-        <v>2702</v>
+        <v>2689</v>
       </c>
     </row>
     <row r="474" spans="1:10" x14ac:dyDescent="0.2">
@@ -23949,13 +23861,13 @@
         <v>45065</v>
       </c>
       <c r="G484" t="s">
-        <v>2703</v>
+        <v>2690</v>
       </c>
       <c r="H484" t="s">
         <v>2248</v>
       </c>
       <c r="J484" t="s">
-        <v>2704</v>
+        <v>2691</v>
       </c>
     </row>
     <row r="485" spans="1:10" x14ac:dyDescent="0.2">
@@ -24072,7 +23984,7 @@
         <v>45072</v>
       </c>
       <c r="G488" t="s">
-        <v>2721</v>
+        <v>2708</v>
       </c>
       <c r="H488" t="s">
         <v>2267</v>
@@ -24396,13 +24308,13 @@
         <v>45152</v>
       </c>
       <c r="G499" t="s">
-        <v>2705</v>
+        <v>2692</v>
       </c>
       <c r="H499" t="s">
         <v>2319</v>
       </c>
       <c r="J499" t="s">
-        <v>2706</v>
+        <v>2693</v>
       </c>
     </row>
     <row r="500" spans="1:10" x14ac:dyDescent="0.2">
@@ -24651,7 +24563,7 @@
         <v>45216</v>
       </c>
       <c r="G508" t="s">
-        <v>2722</v>
+        <v>2709</v>
       </c>
       <c r="H508" t="s">
         <v>2357</v>
@@ -24993,7 +24905,7 @@
         <v>45278</v>
       </c>
       <c r="G520" t="s">
-        <v>2723</v>
+        <v>2710</v>
       </c>
       <c r="H520" t="s">
         <v>2410</v>
@@ -25227,7 +25139,7 @@
         <v>45372</v>
       </c>
       <c r="G528" t="s">
-        <v>2707</v>
+        <v>2694</v>
       </c>
       <c r="H528" t="s">
         <v>2446</v>
@@ -25236,10 +25148,10 @@
         <v>2447</v>
       </c>
       <c r="J528" t="s">
-        <v>2708</v>
-      </c>
-    </row>
-    <row r="529" spans="1:23" x14ac:dyDescent="0.2">
+        <v>2695</v>
+      </c>
+    </row>
+    <row r="529" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A529">
         <f t="shared" si="8"/>
         <v>527</v>
@@ -25266,7 +25178,7 @@
         <v>2451</v>
       </c>
     </row>
-    <row r="530" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A530">
         <f t="shared" si="8"/>
         <v>528</v>
@@ -25293,7 +25205,7 @@
         <v>2455</v>
       </c>
     </row>
-    <row r="531" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A531">
         <f t="shared" si="8"/>
         <v>529</v>
@@ -25317,10 +25229,10 @@
         <v>2458</v>
       </c>
       <c r="H531" t="s">
-        <v>2742</v>
-      </c>
-    </row>
-    <row r="532" spans="1:23" x14ac:dyDescent="0.2">
+        <v>2729</v>
+      </c>
+    </row>
+    <row r="532" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A532">
         <f t="shared" si="8"/>
         <v>530</v>
@@ -25350,7 +25262,7 @@
         <v>2463</v>
       </c>
     </row>
-    <row r="533" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A533">
         <f t="shared" si="8"/>
         <v>531</v>
@@ -25377,7 +25289,7 @@
         <v>2467</v>
       </c>
     </row>
-    <row r="534" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A534">
         <f t="shared" si="8"/>
         <v>532</v>
@@ -25404,7 +25316,7 @@
         <v>2471</v>
       </c>
     </row>
-    <row r="535" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A535">
         <f t="shared" si="8"/>
         <v>533</v>
@@ -25431,7 +25343,7 @@
         <v>2475</v>
       </c>
     </row>
-    <row r="536" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A536">
         <f t="shared" si="8"/>
         <v>534</v>
@@ -25458,7 +25370,7 @@
         <v>2479</v>
       </c>
     </row>
-    <row r="537" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A537">
         <f t="shared" si="8"/>
         <v>535</v>
@@ -25485,7 +25397,7 @@
         <v>2483</v>
       </c>
     </row>
-    <row r="538" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A538">
         <f t="shared" si="8"/>
         <v>536</v>
@@ -25497,22 +25409,22 @@
         <v>17</v>
       </c>
       <c r="D538" s="5" t="s">
-        <v>2709</v>
+        <v>2696</v>
       </c>
       <c r="E538" t="s">
-        <v>2710</v>
+        <v>2697</v>
       </c>
       <c r="F538" s="1">
         <v>45449</v>
       </c>
       <c r="G538" t="s">
-        <v>2711</v>
+        <v>2698</v>
       </c>
       <c r="H538" t="s">
-        <v>2738</v>
-      </c>
-    </row>
-    <row r="539" spans="1:23" x14ac:dyDescent="0.2">
+        <v>2725</v>
+      </c>
+    </row>
+    <row r="539" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A539">
         <f t="shared" si="8"/>
         <v>537</v>
@@ -25524,22 +25436,22 @@
         <v>18</v>
       </c>
       <c r="D539" s="5" t="s">
-        <v>2712</v>
+        <v>2699</v>
       </c>
       <c r="E539" t="s">
-        <v>2713</v>
+        <v>2700</v>
       </c>
       <c r="F539" s="1">
         <v>45453</v>
       </c>
       <c r="G539" t="s">
-        <v>2714</v>
+        <v>2701</v>
       </c>
       <c r="H539" s="6" t="s">
-        <v>2715</v>
-      </c>
-    </row>
-    <row r="540" spans="1:23" x14ac:dyDescent="0.2">
+        <v>2702</v>
+      </c>
+    </row>
+    <row r="540" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A540">
         <f t="shared" si="8"/>
         <v>538</v>
@@ -25551,30 +25463,22 @@
         <v>19</v>
       </c>
       <c r="D540" s="5" t="s">
-        <v>2724</v>
+        <v>2711</v>
       </c>
       <c r="E540" t="s">
-        <v>2725</v>
+        <v>2712</v>
       </c>
       <c r="F540" s="1">
         <v>45461</v>
       </c>
       <c r="G540" t="s">
+        <v>2713</v>
+      </c>
+      <c r="H540" t="s">
         <v>2726</v>
       </c>
-      <c r="H540" t="s">
-        <v>2739</v>
-      </c>
-      <c r="P540" s="5"/>
-      <c r="Q540" s="5"/>
-      <c r="R540" s="5"/>
-      <c r="S540" s="5"/>
-      <c r="T540" s="5"/>
-      <c r="U540" s="5"/>
-      <c r="V540" s="5"/>
-      <c r="W540" s="5"/>
-    </row>
-    <row r="541" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="541" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A541">
         <f t="shared" si="8"/>
         <v>539</v>
@@ -25586,10 +25490,10 @@
         <v>20</v>
       </c>
       <c r="D541" s="5" t="s">
-        <v>2727</v>
+        <v>2714</v>
       </c>
       <c r="E541" t="s">
-        <v>2728</v>
+        <v>2715</v>
       </c>
       <c r="F541" s="1">
         <v>45463</v>
@@ -25598,10 +25502,10 @@
         <v>2406</v>
       </c>
       <c r="H541" t="s">
-        <v>2740</v>
-      </c>
-    </row>
-    <row r="542" spans="1:23" x14ac:dyDescent="0.2">
+        <v>2727</v>
+      </c>
+    </row>
+    <row r="542" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A542">
         <f t="shared" si="8"/>
         <v>540</v>
@@ -25613,19 +25517,19 @@
         <v>21</v>
       </c>
       <c r="D542" s="5" t="s">
-        <v>2729</v>
+        <v>2716</v>
       </c>
       <c r="E542" t="s">
-        <v>2730</v>
+        <v>2717</v>
       </c>
       <c r="F542" s="1">
         <v>45469</v>
       </c>
       <c r="G542" t="s">
-        <v>2731</v>
-      </c>
-    </row>
-    <row r="543" spans="1:23" x14ac:dyDescent="0.2">
+        <v>2718</v>
+      </c>
+    </row>
+    <row r="543" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A543">
         <f t="shared" si="8"/>
         <v>541</v>
@@ -25637,22 +25541,22 @@
         <v>22</v>
       </c>
       <c r="D543" s="5" t="s">
-        <v>2735</v>
+        <v>2722</v>
       </c>
       <c r="E543" t="s">
-        <v>2736</v>
+        <v>2723</v>
       </c>
       <c r="F543" s="1">
         <v>45475</v>
       </c>
       <c r="G543" t="s">
-        <v>2737</v>
+        <v>2724</v>
       </c>
       <c r="H543" t="s">
-        <v>2741</v>
-      </c>
-    </row>
-    <row r="544" spans="1:23" x14ac:dyDescent="0.2">
+        <v>2728</v>
+      </c>
+    </row>
+    <row r="544" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A544">
         <f t="shared" si="8"/>
         <v>542</v>
@@ -25664,21 +25568,21 @@
         <v>23</v>
       </c>
       <c r="D544" s="5" t="s">
-        <v>2745</v>
+        <v>2732</v>
       </c>
       <c r="E544" t="s">
-        <v>2746</v>
+        <v>2733</v>
       </c>
       <c r="F544" s="1">
         <v>45498</v>
       </c>
       <c r="G544" t="s">
-        <v>2747</v>
+        <v>2734</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:W1" xr:uid="{10BFA901-49ED-4245-9D27-77265F90C3C6}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:W541">
+  <autoFilter ref="B1:M1" xr:uid="{10BFA901-49ED-4245-9D27-77265F90C3C6}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:M541">
       <sortCondition ref="B1:B541"/>
     </sortState>
   </autoFilter>

--- a/fda_nce.xlsx
+++ b/fda_nce.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rahimhashim/My Drive/Time Bioventures/Projects/White Papers/Drug Development/FDA-NCE-Scraper/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{350FFE75-D9D5-7547-9447-57963376D750}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2CCF6B8-2BB3-264B-B4B1-03EE84367044}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1580" windowWidth="36000" windowHeight="21100" xr2:uid="{741117CD-6B31-8443-8BA3-502980940CE4}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2760" uniqueCount="2735">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2807" uniqueCount="2781">
   <si>
     <t>year</t>
   </si>
@@ -8244,6 +8244,146 @@
   </si>
   <si>
     <t>To treat severe alopecia areata</t>
+  </si>
+  <si>
+    <t>Voranigo</t>
+  </si>
+  <si>
+    <t>vorasidenib</t>
+  </si>
+  <si>
+    <t>To treat Grade 2 astrocytoma or oligodendroglioma</t>
+  </si>
+  <si>
+    <t>https://www.accessdata.fda.gov/drugsatfda_docs/label/2024/218784s000lbl.pdf</t>
+  </si>
+  <si>
+    <t>Yorvipath</t>
+  </si>
+  <si>
+    <t>palopegteriparatide</t>
+  </si>
+  <si>
+    <t>To treat hypoparathyroidism</t>
+  </si>
+  <si>
+    <t>https://www.accessdata.fda.gov/drugsatfda_docs/label/2024/216490s000lbl.pdf</t>
+  </si>
+  <si>
+    <t>Nemluvio</t>
+  </si>
+  <si>
+    <t>nemolizumab-ilto</t>
+  </si>
+  <si>
+    <t>To treat prurigo nodularis</t>
+  </si>
+  <si>
+    <t>https://www.accessdata.fda.gov/drugsatfda_docs/label/2024/761390s000lbl.pdf</t>
+  </si>
+  <si>
+    <t>Livdelzi</t>
+  </si>
+  <si>
+    <t>seladelpar</t>
+  </si>
+  <si>
+    <t>To treat primary biliary cholangitis (PBC)</t>
+  </si>
+  <si>
+    <t>https://www.accessdata.fda.gov/drugsatfda_docs/label/2024/217899s000lbl.pdf</t>
+  </si>
+  <si>
+    <t>Niktimvo</t>
+  </si>
+  <si>
+    <t>axatilimab-csfr</t>
+  </si>
+  <si>
+    <t>To treat chronic graft-versus-host disease (cGVHD)</t>
+  </si>
+  <si>
+    <t>https://www.accessdata.fda.gov/drugsatfda_docs/label/2024/761411s000lbl.pdf</t>
+  </si>
+  <si>
+    <t>Lazcluze</t>
+  </si>
+  <si>
+    <t>lazertinib</t>
+  </si>
+  <si>
+    <t>To treat non-small cell lung cancer</t>
+  </si>
+  <si>
+    <t>https://www.accessdata.fda.gov/drugsatfda_docs/label/2024/219008s000lbl.pdf</t>
+  </si>
+  <si>
+    <t>Ebglyss</t>
+  </si>
+  <si>
+    <t>lebrikizumab-lbkz</t>
+  </si>
+  <si>
+    <t>To treat¬†moderate-to-severe atopic dermatitis</t>
+  </si>
+  <si>
+    <t>https://www.accessdata.fda.gov/drugsatfda_docs/label/2024/761306Orig1s000correctedlbl.pdf</t>
+  </si>
+  <si>
+    <t>Miplyffa</t>
+  </si>
+  <si>
+    <t>arimoclomol</t>
+  </si>
+  <si>
+    <t>To treat Niemann-Pick disease type C
+Press Release</t>
+  </si>
+  <si>
+    <t>https://www.accessdata.fda.gov/drugsatfda_docs/label/2024/214927s000lbl.pdf</t>
+  </si>
+  <si>
+    <t>https://www.fda.gov/news-events/press-announcements/fda-approves-first-treatment-niemann-pick-disease-type-c</t>
+  </si>
+  <si>
+    <t>Aqneursa</t>
+  </si>
+  <si>
+    <t>levacetylleucine</t>
+  </si>
+  <si>
+    <t>https://www.accessdata.fda.gov/drugsatfda_docs/label/2024/219132s000lbl.pdf</t>
+  </si>
+  <si>
+    <t>https://www.fda.gov/news-events/press-announcements/fda-approves-new-drug-treat-niemann-pick-disease-type-c</t>
+  </si>
+  <si>
+    <t>Cobenfy</t>
+  </si>
+  <si>
+    <t>xanomeline and trospium chloride</t>
+  </si>
+  <si>
+    <t>To treat schizophrenia
+Press Release</t>
+  </si>
+  <si>
+    <t>https://www.accessdata.fda.gov/drugsatfda_docs/label/2024/216158s000lbl.pdf</t>
+  </si>
+  <si>
+    <t>https://www.fda.gov/news-events/press-announcements/fda-approves-drug-new-mechanism-action-treatment-schizophrenia</t>
+  </si>
+  <si>
+    <t>Flyrcado</t>
+  </si>
+  <si>
+    <t>flurpiridaz F 18</t>
+  </si>
+  <si>
+    <t>A¬†radioactive diagnostic drug¬†to evaluate for myocardial ischemia and infarction</t>
+  </si>
+  <si>
+    <t>https://www.accessdata.fda.gov/drugsatfda_docs/label/2024/215168s000lbl.pdf</t>
   </si>
 </sst>
 </file>
@@ -9141,10 +9281,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10BFA901-49ED-4245-9D27-77265F90C3C6}">
-  <dimension ref="A1:J544"/>
+  <dimension ref="A1:J555"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+    <sheetView tabSelected="1" topLeftCell="A509" workbookViewId="0">
+      <selection activeCell="B551" sqref="B551"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -24772,7 +24912,7 @@
     </row>
     <row r="516" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A516">
-        <f t="shared" ref="A516:A544" si="8">A515+1</f>
+        <f t="shared" ref="A516:A555" si="8">A515+1</f>
         <v>514</v>
       </c>
       <c r="B516">
@@ -25578,6 +25718,312 @@
       </c>
       <c r="G544" t="s">
         <v>2734</v>
+      </c>
+    </row>
+    <row r="545" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A545">
+        <f t="shared" si="8"/>
+        <v>543</v>
+      </c>
+      <c r="B545">
+        <v>2024</v>
+      </c>
+      <c r="C545">
+        <v>24</v>
+      </c>
+      <c r="D545" s="5" t="s">
+        <v>2735</v>
+      </c>
+      <c r="E545" t="s">
+        <v>2736</v>
+      </c>
+      <c r="F545" s="1">
+        <v>45510</v>
+      </c>
+      <c r="G545" t="s">
+        <v>2737</v>
+      </c>
+      <c r="H545" t="s">
+        <v>2738</v>
+      </c>
+    </row>
+    <row r="546" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A546">
+        <f t="shared" si="8"/>
+        <v>544</v>
+      </c>
+      <c r="B546">
+        <v>2024</v>
+      </c>
+      <c r="C546">
+        <v>25</v>
+      </c>
+      <c r="D546" s="5" t="s">
+        <v>2739</v>
+      </c>
+      <c r="E546" t="s">
+        <v>2740</v>
+      </c>
+      <c r="F546" s="1">
+        <v>45513</v>
+      </c>
+      <c r="G546" t="s">
+        <v>2741</v>
+      </c>
+      <c r="H546" t="s">
+        <v>2742</v>
+      </c>
+    </row>
+    <row r="547" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A547">
+        <f t="shared" si="8"/>
+        <v>545</v>
+      </c>
+      <c r="B547">
+        <v>2024</v>
+      </c>
+      <c r="C547">
+        <v>26</v>
+      </c>
+      <c r="D547" s="5" t="s">
+        <v>2743</v>
+      </c>
+      <c r="E547" t="s">
+        <v>2744</v>
+      </c>
+      <c r="F547" s="1">
+        <v>45516</v>
+      </c>
+      <c r="G547" t="s">
+        <v>2745</v>
+      </c>
+      <c r="H547" t="s">
+        <v>2746</v>
+      </c>
+    </row>
+    <row r="548" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A548">
+        <f t="shared" si="8"/>
+        <v>546</v>
+      </c>
+      <c r="B548">
+        <v>2024</v>
+      </c>
+      <c r="C548">
+        <v>27</v>
+      </c>
+      <c r="D548" s="5" t="s">
+        <v>2747</v>
+      </c>
+      <c r="E548" t="s">
+        <v>2748</v>
+      </c>
+      <c r="F548" s="1">
+        <v>45518</v>
+      </c>
+      <c r="G548" t="s">
+        <v>2749</v>
+      </c>
+      <c r="H548" t="s">
+        <v>2750</v>
+      </c>
+    </row>
+    <row r="549" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A549">
+        <f t="shared" si="8"/>
+        <v>547</v>
+      </c>
+      <c r="B549">
+        <v>2024</v>
+      </c>
+      <c r="C549">
+        <v>28</v>
+      </c>
+      <c r="D549" s="5" t="s">
+        <v>2751</v>
+      </c>
+      <c r="E549" t="s">
+        <v>2752</v>
+      </c>
+      <c r="F549" s="1">
+        <v>45518</v>
+      </c>
+      <c r="G549" t="s">
+        <v>2753</v>
+      </c>
+      <c r="H549" t="s">
+        <v>2754</v>
+      </c>
+    </row>
+    <row r="550" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A550">
+        <f t="shared" si="8"/>
+        <v>548</v>
+      </c>
+      <c r="B550">
+        <v>2024</v>
+      </c>
+      <c r="C550">
+        <v>29</v>
+      </c>
+      <c r="D550" s="5" t="s">
+        <v>2755</v>
+      </c>
+      <c r="E550" t="s">
+        <v>2756</v>
+      </c>
+      <c r="F550" s="1">
+        <v>45523</v>
+      </c>
+      <c r="G550" t="s">
+        <v>2757</v>
+      </c>
+      <c r="H550" t="s">
+        <v>2758</v>
+      </c>
+    </row>
+    <row r="551" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A551">
+        <f t="shared" si="8"/>
+        <v>549</v>
+      </c>
+      <c r="B551">
+        <v>2024</v>
+      </c>
+      <c r="C551">
+        <v>30</v>
+      </c>
+      <c r="D551" s="5" t="s">
+        <v>2759</v>
+      </c>
+      <c r="E551" t="s">
+        <v>2760</v>
+      </c>
+      <c r="F551" s="1">
+        <v>45548</v>
+      </c>
+      <c r="G551" t="s">
+        <v>2761</v>
+      </c>
+      <c r="H551" t="s">
+        <v>2762</v>
+      </c>
+    </row>
+    <row r="552" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A552">
+        <f t="shared" si="8"/>
+        <v>550</v>
+      </c>
+      <c r="B552">
+        <v>2024</v>
+      </c>
+      <c r="C552">
+        <v>31</v>
+      </c>
+      <c r="D552" s="5" t="s">
+        <v>2763</v>
+      </c>
+      <c r="E552" t="s">
+        <v>2764</v>
+      </c>
+      <c r="F552" s="1">
+        <v>45555</v>
+      </c>
+      <c r="G552" t="s">
+        <v>2765</v>
+      </c>
+      <c r="H552" t="s">
+        <v>2766</v>
+      </c>
+      <c r="I552" t="s">
+        <v>2767</v>
+      </c>
+    </row>
+    <row r="553" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A553">
+        <f t="shared" si="8"/>
+        <v>551</v>
+      </c>
+      <c r="B553">
+        <v>2024</v>
+      </c>
+      <c r="C553">
+        <v>32</v>
+      </c>
+      <c r="D553" s="5" t="s">
+        <v>2768</v>
+      </c>
+      <c r="E553" t="s">
+        <v>2769</v>
+      </c>
+      <c r="F553" s="1">
+        <v>45559</v>
+      </c>
+      <c r="G553" t="s">
+        <v>2765</v>
+      </c>
+      <c r="H553" t="s">
+        <v>2770</v>
+      </c>
+      <c r="I553" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="554" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A554">
+        <f t="shared" si="8"/>
+        <v>552</v>
+      </c>
+      <c r="B554">
+        <v>2024</v>
+      </c>
+      <c r="C554">
+        <v>33</v>
+      </c>
+      <c r="D554" s="5" t="s">
+        <v>2772</v>
+      </c>
+      <c r="E554" t="s">
+        <v>2773</v>
+      </c>
+      <c r="F554" s="1">
+        <v>45561</v>
+      </c>
+      <c r="G554" t="s">
+        <v>2774</v>
+      </c>
+      <c r="H554" t="s">
+        <v>2775</v>
+      </c>
+      <c r="I554" t="s">
+        <v>2776</v>
+      </c>
+    </row>
+    <row r="555" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A555">
+        <f t="shared" si="8"/>
+        <v>553</v>
+      </c>
+      <c r="B555">
+        <v>2024</v>
+      </c>
+      <c r="C555">
+        <v>34</v>
+      </c>
+      <c r="D555" s="5" t="s">
+        <v>2777</v>
+      </c>
+      <c r="E555" t="s">
+        <v>2778</v>
+      </c>
+      <c r="F555" s="1">
+        <v>45562</v>
+      </c>
+      <c r="G555" t="s">
+        <v>2779</v>
+      </c>
+      <c r="H555" t="s">
+        <v>2780</v>
       </c>
     </row>
   </sheetData>

--- a/fda_nce.xlsx
+++ b/fda_nce.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rahimhashim/My Drive/Time Bioventures/Projects/White Papers/Drug Development/FDA-NCE-Scraper/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2C688DA-0CA2-7646-8003-C6807B520C5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2290514C-60AE-B14C-BCE1-66AFD5D925BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1580" windowWidth="36000" windowHeight="21100" xr2:uid="{741117CD-6B31-8443-8BA3-502980940CE4}"/>
+    <workbookView xWindow="2880" yWindow="2680" windowWidth="30240" windowHeight="18880" xr2:uid="{741117CD-6B31-8443-8BA3-502980940CE4}"/>
   </bookViews>
   <sheets>
     <sheet name="fda_nce" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2823" uniqueCount="2786">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2846" uniqueCount="2809">
   <si>
     <t>year</t>
   </si>
@@ -8400,6 +8400,75 @@
   </si>
   <si>
     <t>To treat unresectable or metastatic esophageal squamous cell carcinoma</t>
+  </si>
+  <si>
+    <t>Revuforj</t>
+  </si>
+  <si>
+    <t>revumenib</t>
+  </si>
+  <si>
+    <t>To treat relapsed or refractory acute leukemia</t>
+  </si>
+  <si>
+    <t>Ziihera</t>
+  </si>
+  <si>
+    <t>zanidatamab-hrii</t>
+  </si>
+  <si>
+    <t>To treat unresectable or metastatic HER2-positive (IHC 3+) biliary tract cancer</t>
+  </si>
+  <si>
+    <t>https://www.accessdata.fda.gov/drugsatfda_docs/label/2024/761416s000lbl.pdf</t>
+  </si>
+  <si>
+    <t>Attruby</t>
+  </si>
+  <si>
+    <t>acoramidis</t>
+  </si>
+  <si>
+    <t>To treat cardiomyopathy of wild-type or variant transthyretin-mediated amyloidosis</t>
+  </si>
+  <si>
+    <t>https://www.accessdata.fda.gov/drugsatfda_docs/label/2024/216540s000lbl.pdf</t>
+  </si>
+  <si>
+    <t>Rapiblyk</t>
+  </si>
+  <si>
+    <t>landiolol</t>
+  </si>
+  <si>
+    <t>To treat supraventricular tachycardia</t>
+  </si>
+  <si>
+    <t>https://www.accessdata.fda.gov/drugsatfda_docs/label/2024/217202s000lbl.pdf</t>
+  </si>
+  <si>
+    <t>Iomervu</t>
+  </si>
+  <si>
+    <t>iomeprol</t>
+  </si>
+  <si>
+    <t>For use as a radiographic contrast agent</t>
+  </si>
+  <si>
+    <t>https://www.accessdata.fda.gov/drugsatfda_docs/label/2024/216017s000,216017s000lbl.pdf</t>
+  </si>
+  <si>
+    <t>Bizengri</t>
+  </si>
+  <si>
+    <t>zenocutuzumab-zbco</t>
+  </si>
+  <si>
+    <t>To treat non-small cell lung cancer and pancreatic adenocarcinoma</t>
+  </si>
+  <si>
+    <t>https://www.accessdata.fda.gov/drugsatfda_docs/label/2024/761352s001lbl.pdf</t>
   </si>
 </sst>
 </file>
@@ -9297,10 +9366,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10BFA901-49ED-4245-9D27-77265F90C3C6}">
-  <dimension ref="A1:J559"/>
+  <dimension ref="A1:J565"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A126" workbookViewId="0">
-      <selection activeCell="N142" sqref="N142:N143"/>
+    <sheetView tabSelected="1" topLeftCell="A528" workbookViewId="0">
+      <selection activeCell="G565" sqref="G565"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -18407,7 +18476,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="300" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A300">
         <f t="shared" si="4"/>
         <v>298</v>
@@ -24928,7 +24997,7 @@
     </row>
     <row r="516" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A516">
-        <f t="shared" ref="A516:A559" si="8">A515+1</f>
+        <f t="shared" ref="A516:A565" si="8">A515+1</f>
         <v>514</v>
       </c>
       <c r="B516">
@@ -25925,7 +25994,7 @@
         <v>2288</v>
       </c>
     </row>
-    <row r="552" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A552">
         <f t="shared" si="8"/>
         <v>550</v>
@@ -25955,7 +26024,7 @@
         <v>2292</v>
       </c>
     </row>
-    <row r="553" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A553">
         <f t="shared" si="8"/>
         <v>551</v>
@@ -25985,7 +26054,7 @@
         <v>2296</v>
       </c>
     </row>
-    <row r="554" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A554">
         <f t="shared" si="8"/>
         <v>552</v>
@@ -26015,7 +26084,7 @@
         <v>2300</v>
       </c>
     </row>
-    <row r="555" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A555">
         <f t="shared" si="8"/>
         <v>553</v>
@@ -26042,7 +26111,7 @@
         <v>2303</v>
       </c>
     </row>
-    <row r="556" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A556">
         <f t="shared" si="8"/>
         <v>554</v>
@@ -26069,7 +26138,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="557" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A557">
         <f t="shared" si="8"/>
         <v>555</v>
@@ -26096,7 +26165,7 @@
         <v>2310</v>
       </c>
     </row>
-    <row r="558" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A558">
         <f t="shared" si="8"/>
         <v>556</v>
@@ -26123,7 +26192,7 @@
         <v>2314</v>
       </c>
     </row>
-    <row r="559" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A559">
         <f t="shared" si="8"/>
         <v>557</v>
@@ -26148,6 +26217,165 @@
       </c>
       <c r="H559" t="s">
         <v>2318</v>
+      </c>
+    </row>
+    <row r="560" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A560">
+        <f t="shared" si="8"/>
+        <v>558</v>
+      </c>
+      <c r="B560">
+        <v>2024</v>
+      </c>
+      <c r="C560">
+        <v>39</v>
+      </c>
+      <c r="D560" s="5" t="s">
+        <v>2786</v>
+      </c>
+      <c r="E560" t="s">
+        <v>2787</v>
+      </c>
+      <c r="F560" s="1">
+        <v>45611</v>
+      </c>
+      <c r="G560" t="s">
+        <v>2788</v>
+      </c>
+    </row>
+    <row r="561" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A561">
+        <f t="shared" si="8"/>
+        <v>559</v>
+      </c>
+      <c r="B561">
+        <v>2024</v>
+      </c>
+      <c r="C561">
+        <v>40</v>
+      </c>
+      <c r="D561" s="5" t="s">
+        <v>2789</v>
+      </c>
+      <c r="E561" t="s">
+        <v>2790</v>
+      </c>
+      <c r="F561" s="1">
+        <v>45616</v>
+      </c>
+      <c r="G561" t="s">
+        <v>2791</v>
+      </c>
+      <c r="H561" t="s">
+        <v>2792</v>
+      </c>
+    </row>
+    <row r="562" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A562">
+        <f t="shared" si="8"/>
+        <v>560</v>
+      </c>
+      <c r="B562">
+        <v>2024</v>
+      </c>
+      <c r="C562">
+        <v>41</v>
+      </c>
+      <c r="D562" s="5" t="s">
+        <v>2793</v>
+      </c>
+      <c r="E562" t="s">
+        <v>2794</v>
+      </c>
+      <c r="F562" s="1">
+        <v>45618</v>
+      </c>
+      <c r="G562" t="s">
+        <v>2795</v>
+      </c>
+      <c r="H562" t="s">
+        <v>2796</v>
+      </c>
+    </row>
+    <row r="563" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A563">
+        <f t="shared" si="8"/>
+        <v>561</v>
+      </c>
+      <c r="B563">
+        <v>2024</v>
+      </c>
+      <c r="C563">
+        <v>42</v>
+      </c>
+      <c r="D563" s="5" t="s">
+        <v>2797</v>
+      </c>
+      <c r="E563" t="s">
+        <v>2798</v>
+      </c>
+      <c r="F563" s="1">
+        <v>45618</v>
+      </c>
+      <c r="G563" t="s">
+        <v>2799</v>
+      </c>
+      <c r="H563" t="s">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="564" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A564">
+        <f t="shared" si="8"/>
+        <v>562</v>
+      </c>
+      <c r="B564">
+        <v>2024</v>
+      </c>
+      <c r="C564">
+        <v>43</v>
+      </c>
+      <c r="D564" s="5" t="s">
+        <v>2801</v>
+      </c>
+      <c r="E564" t="s">
+        <v>2802</v>
+      </c>
+      <c r="F564" s="1">
+        <v>45623</v>
+      </c>
+      <c r="G564" t="s">
+        <v>2803</v>
+      </c>
+      <c r="H564" t="s">
+        <v>2804</v>
+      </c>
+    </row>
+    <row r="565" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A565">
+        <f t="shared" si="8"/>
+        <v>563</v>
+      </c>
+      <c r="B565">
+        <v>2024</v>
+      </c>
+      <c r="C565">
+        <v>44</v>
+      </c>
+      <c r="D565" s="5" t="s">
+        <v>2805</v>
+      </c>
+      <c r="E565" t="s">
+        <v>2806</v>
+      </c>
+      <c r="F565" s="1">
+        <v>45630</v>
+      </c>
+      <c r="G565" t="s">
+        <v>2807</v>
+      </c>
+      <c r="H565" t="s">
+        <v>2808</v>
       </c>
     </row>
   </sheetData>
@@ -26160,5 +26388,6 @@
     <hyperlink ref="H539" r:id="rId1" xr:uid="{EA2E2425-F3B7-7C41-AF92-2E58E9404108}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/fda_nce.xlsx
+++ b/fda_nce.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rahimhashim/My Drive/Time Bioventures/Projects/White Papers/Drug Development/FDA-NCE-Scraper/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2290514C-60AE-B14C-BCE1-66AFD5D925BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C316EFE9-D825-434A-99CC-475D597A31B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2880" yWindow="2680" windowWidth="30240" windowHeight="18880" xr2:uid="{741117CD-6B31-8443-8BA3-502980940CE4}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2846" uniqueCount="2809">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2870" uniqueCount="2831">
   <si>
     <t>year</t>
   </si>
@@ -8469,6 +8469,72 @@
   </si>
   <si>
     <t>https://www.accessdata.fda.gov/drugsatfda_docs/label/2024/761352s001lbl.pdf</t>
+  </si>
+  <si>
+    <t>Unloxcyt</t>
+  </si>
+  <si>
+    <t>cosibelimab-ipdl</t>
+  </si>
+  <si>
+    <t>To treat cutaneous squamous cell carcinoma</t>
+  </si>
+  <si>
+    <t>https://www.accessdata.fda.gov/drugsatfda_docs/label/2023/761297s000lbl.pdf</t>
+  </si>
+  <si>
+    <t>Crenessity</t>
+  </si>
+  <si>
+    <t>crinecerfont</t>
+  </si>
+  <si>
+    <t>To treat classic congenital adrenal hyperplasia¬†Press Release</t>
+  </si>
+  <si>
+    <t>https://www.accessdata.fda.gov/drugsatfda_docs/label/2024/218808s000,218820s000lbl.pdf</t>
+  </si>
+  <si>
+    <t>Ensacove</t>
+  </si>
+  <si>
+    <t>ensartinib</t>
+  </si>
+  <si>
+    <t>https://www.accessdata.fda.gov/drugsatfda_docs/label/2024/218171s000lbl.pdf</t>
+  </si>
+  <si>
+    <t>Tryngolza</t>
+  </si>
+  <si>
+    <t>olezarsen</t>
+  </si>
+  <si>
+    <t>To treat familial chylomicronemia syndrome</t>
+  </si>
+  <si>
+    <t>https://www.accessdata.fda.gov/drugsatfda_docs/label/2024/218614s000lbl.pdf</t>
+  </si>
+  <si>
+    <t>Alyftrek</t>
+  </si>
+  <si>
+    <t>vanzacaftor, tezacaftor, and deutivacaftor</t>
+  </si>
+  <si>
+    <t>https://www.accessdata.fda.gov/drugsatfda_docs/label/2024/218730s000lbl.pdf</t>
+  </si>
+  <si>
+    <t>Alhemo</t>
+  </si>
+  <si>
+    <t>concizumab-mtci</t>
+  </si>
+  <si>
+    <t>For routine prophylaxis to prevent bleeding episodes in hemophilia A and B</t>
+  </si>
+  <si>
+    <t>https://www.accessdata.fda.gov/drugsatfda_docs/label/2024/761315s000lbl.pdf</t>
   </si>
 </sst>
 </file>
@@ -9366,10 +9432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10BFA901-49ED-4245-9D27-77265F90C3C6}">
-  <dimension ref="A1:J565"/>
+  <dimension ref="A1:J571"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A528" workbookViewId="0">
-      <selection activeCell="G565" sqref="G565"/>
+    <sheetView tabSelected="1" topLeftCell="A535" workbookViewId="0">
+      <selection activeCell="G564" sqref="G564"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -24997,7 +25063,7 @@
     </row>
     <row r="516" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A516">
-        <f t="shared" ref="A516:A565" si="8">A515+1</f>
+        <f t="shared" ref="A516:A571" si="8">A515+1</f>
         <v>514</v>
       </c>
       <c r="B516">
@@ -26376,6 +26442,168 @@
       </c>
       <c r="H565" t="s">
         <v>2808</v>
+      </c>
+    </row>
+    <row r="566" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A566">
+        <f t="shared" si="8"/>
+        <v>564</v>
+      </c>
+      <c r="B566">
+        <v>2024</v>
+      </c>
+      <c r="C566">
+        <v>45</v>
+      </c>
+      <c r="D566" s="5" t="s">
+        <v>2809</v>
+      </c>
+      <c r="E566" t="s">
+        <v>2810</v>
+      </c>
+      <c r="F566" s="1">
+        <v>45639</v>
+      </c>
+      <c r="G566" t="s">
+        <v>2811</v>
+      </c>
+      <c r="H566" t="s">
+        <v>2812</v>
+      </c>
+    </row>
+    <row r="567" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A567">
+        <f t="shared" si="8"/>
+        <v>565</v>
+      </c>
+      <c r="B567">
+        <v>2024</v>
+      </c>
+      <c r="C567">
+        <v>46</v>
+      </c>
+      <c r="D567" s="5" t="s">
+        <v>2813</v>
+      </c>
+      <c r="E567" t="s">
+        <v>2814</v>
+      </c>
+      <c r="F567" s="1">
+        <v>45639</v>
+      </c>
+      <c r="G567" t="s">
+        <v>2815</v>
+      </c>
+      <c r="H567" t="s">
+        <v>2816</v>
+      </c>
+    </row>
+    <row r="568" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A568">
+        <f t="shared" si="8"/>
+        <v>566</v>
+      </c>
+      <c r="B568">
+        <v>2024</v>
+      </c>
+      <c r="C568">
+        <v>47</v>
+      </c>
+      <c r="D568" s="5" t="s">
+        <v>2817</v>
+      </c>
+      <c r="E568" t="s">
+        <v>2818</v>
+      </c>
+      <c r="F568" s="1">
+        <v>45644</v>
+      </c>
+      <c r="G568" t="s">
+        <v>2284</v>
+      </c>
+      <c r="H568" t="s">
+        <v>2819</v>
+      </c>
+    </row>
+    <row r="569" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A569">
+        <f t="shared" si="8"/>
+        <v>567</v>
+      </c>
+      <c r="B569">
+        <v>2024</v>
+      </c>
+      <c r="C569">
+        <v>48</v>
+      </c>
+      <c r="D569" s="5" t="s">
+        <v>2820</v>
+      </c>
+      <c r="E569" t="s">
+        <v>2821</v>
+      </c>
+      <c r="F569" s="1">
+        <v>45645</v>
+      </c>
+      <c r="G569" t="s">
+        <v>2822</v>
+      </c>
+      <c r="H569" t="s">
+        <v>2823</v>
+      </c>
+    </row>
+    <row r="570" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A570">
+        <f t="shared" si="8"/>
+        <v>568</v>
+      </c>
+      <c r="B570">
+        <v>2024</v>
+      </c>
+      <c r="C570">
+        <v>49</v>
+      </c>
+      <c r="D570" s="5" t="s">
+        <v>2824</v>
+      </c>
+      <c r="E570" t="s">
+        <v>2825</v>
+      </c>
+      <c r="F570" s="1">
+        <v>45646</v>
+      </c>
+      <c r="G570" t="s">
+        <v>2590</v>
+      </c>
+      <c r="H570" t="s">
+        <v>2826</v>
+      </c>
+    </row>
+    <row r="571" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A571">
+        <f t="shared" si="8"/>
+        <v>569</v>
+      </c>
+      <c r="B571">
+        <v>2024</v>
+      </c>
+      <c r="C571">
+        <v>50</v>
+      </c>
+      <c r="D571" s="5" t="s">
+        <v>2827</v>
+      </c>
+      <c r="E571" t="s">
+        <v>2828</v>
+      </c>
+      <c r="F571" s="1">
+        <v>45646</v>
+      </c>
+      <c r="G571" t="s">
+        <v>2829</v>
+      </c>
+      <c r="H571" t="s">
+        <v>2830</v>
       </c>
     </row>
   </sheetData>
